--- a/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
+++ b/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">Aggregation Levels</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS, Linear SOS, Average</t>
+    <t xml:space="preserve">SOS, Linear SOS</t>
   </si>
   <si>
     <t xml:space="preserve">Category, Manufacturer, Brand</t>
@@ -564,19 +564,19 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.7111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="100.837037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.385185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,12 +1104,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,16 +1164,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,8 +1222,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,16 +1503,16 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.5074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,14 +1616,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.0333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,12 +1818,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,9 +1956,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,9 +2008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.7111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,8 +2069,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,11 +2112,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.3703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,8 +2173,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
+++ b/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,9 @@
     <sheet name="Percent" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Aggregation" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Top-Middle-Bottom Map" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Yogurt Location Map" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Location Sub KPIs" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stocking Location" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="145">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -189,6 +192,12 @@
     <t xml:space="preserve">Presence</t>
   </si>
   <si>
+    <t xml:space="preserve">What best describes the stocking location of Organic Yogurt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocking Location</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aggregation</t>
   </si>
   <si>
@@ -331,6 +340,135 @@
   </si>
   <si>
     <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. All Organic Blocked within Mainstream Yogurt Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Adult Organic and Kid Organic Blocked, but in Separate Locations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Interspersed within Mainstream Yogurt Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. All Organic Blocked; Located in Separate Location in Separate Aisle (Natural/Organic Store within a Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.  No Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural/ Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid nat/org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult nat/org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 MSL</t>
   </si>
 </sst>
 </file>
@@ -341,7 +479,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -366,6 +504,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -375,6 +526,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -399,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -414,8 +571,22 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,8 +610,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,7 +640,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +648,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,14 +664,32 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal 2 3" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -562,21 +759,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.385185185185"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.5333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="106.02962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,20 +1262,28 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="G35" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="G36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1104,29 +1309,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,16 +1339,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1164,16 +1369,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1222,13 +1427,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="7" t="n">
         <v>1</v>
@@ -1266,13 +1471,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1287,16 +1492,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1310,19 +1515,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1335,22 +1540,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1362,25 +1567,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1391,28 +1596,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1422,67 +1627,474 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.362962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36296296296296"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.9555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.9666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.6407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9555555555556"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="15.862962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2111111111111"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="15.862962962963"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9555555555556"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="15.862962962963"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.9555555555556"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.4333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="15.862962962963"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.9555555555556"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.4333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.36296296296296"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1509,10 +2121,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.5074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,10 +2143,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,10 +2154,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,10 +2165,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,10 +2187,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1616,28 +2228,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.0333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.3074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,13 +2257,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,13 +2271,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,13 +2285,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,13 +2299,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,13 +2313,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,13 +2327,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,13 +2341,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,13 +2355,13 @@
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,13 +2369,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,13 +2383,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,13 +2397,13 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1818,29 +2430,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,10 +2460,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,10 +2471,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +2482,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +2493,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,10 +2504,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,16 +2515,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,16 +2532,16 @@
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1956,9 +2568,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,10 +2589,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2008,17 +2620,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.5333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,7 +2638,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2646,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,7 +2654,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2069,8 +2681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,7 +2697,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2112,11 +2724,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.3703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,18 +2747,18 @@
         <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2173,8 +2785,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,10 +2805,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
+++ b/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,8 +21,8 @@
     <sheet name="Aggregation" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Top-Middle-Bottom Map" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Yogurt Location Map" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Location Sub KPIs" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Stocking Location" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Stocking Location" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Alternate Stocking Location" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="155">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -45,6 +45,12 @@
     <t xml:space="preserve">Parent</t>
   </si>
   <si>
+    <t xml:space="preserve">Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Result</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scene Type</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t xml:space="preserve">Main Stocking Location for Refrigerated Baked Goods, Separate Natural/ Organic Location Refrigerated Baked Goods</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Where are Pie Crust facings shelved?</t>
   </si>
   <si>
@@ -198,12 +207,36 @@
     <t xml:space="preserve">Stocking Location</t>
   </si>
   <si>
+    <t xml:space="preserve">When RTS Progresso is vertically blocked, what is adjacent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjacency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is RTS Progresso blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If not blocked, where is RTS Private Label stocked? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is RTS Private Label blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordering test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is RTS Progresso blocked?, How is RTS Private Label blocked?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aggregation</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Param 1</t>
   </si>
   <si>
@@ -378,97 +411,94 @@
     <t xml:space="preserve">E.  No Distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">Criteria 1 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 1 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 2 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 3 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 4 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 5 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria 6 MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural/ Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid nat/org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult nat/org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sub KPI</t>
   </si>
   <si>
     <t xml:space="preserve">MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural/ Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kid nat/org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult nat/org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 MSL</t>
   </si>
 </sst>
 </file>
@@ -503,17 +533,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -532,6 +555,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -586,7 +616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -610,21 +640,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,7 +674,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,7 +682,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,40 +690,35 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2 3" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -759,21 +788,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.5333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="106.02962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.3962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="108.674074074074"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,492 +827,763 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="G36" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="I41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1304,51 +1604,51 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="D38 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.4703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1370,15 +1670,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D38 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1422,272 +1722,272 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="D38 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="7" t="n">
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="n">
+      <c r="G1" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="n">
+      <c r="H1" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="n">
+      <c r="I1" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="n">
+      <c r="J1" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="n">
+      <c r="K1" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>100</v>
+      <c r="A9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1709,76 +2009,76 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D38 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.362962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>109</v>
+      <c r="A2" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>110</v>
+      <c r="A3" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>111</v>
+      <c r="A4" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>112</v>
+      <c r="A5" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>113</v>
+      <c r="A6" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1797,110 +2097,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D38 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1919,182 +2290,110 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="D38 I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.9555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.9666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.6407407407407"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="15.862962962963"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2111111111111"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="15.862962962963"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9555555555556"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="15.862962962963"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.9555555555556"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.4333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="15.862962962963"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.9555555555556"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.4333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>52</v>
+      <c r="A2" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>55</v>
+        <v>149</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2116,15 +2415,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="D38 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4185185185185"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,76 +2430,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2223,187 +2521,186 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="D38 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.3074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.6814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.7703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2425,123 +2722,121 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D38 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6555555555556"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2563,36 +2858,35 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D38 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2615,46 +2909,45 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D38 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.5333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.3962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8333333333333"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>82</v>
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>83</v>
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2675,14 +2968,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D38 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5148148148148"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,12 +2984,12 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2719,16 +3011,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D38 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.9185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,29 +3027,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="3" t="s">
-        <v>88</v>
+      <c r="D3" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2780,13 +3071,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="D38 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.162962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,21 +3084,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
+++ b/Projects/GMIUS/Data/GMI KPI Template v0.2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="155">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -509,7 +509,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -531,12 +531,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -640,12 +634,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -656,10 +650,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -674,7 +664,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,7 +672,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,19 +684,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,18 +781,20 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.3962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="108.674074074074"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.3555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="111.518518518519"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,8 +1520,11 @@
       <c r="A38" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1604,17 +1599,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="D38 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.4703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.6444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,15 +1665,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D38 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.8111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,52 +1717,52 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="D38 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="n">
+      <c r="H1" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="n">
+      <c r="I1" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="n">
+      <c r="J1" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="n">
+      <c r="K1" s="8" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1788,7 +1783,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1811,7 +1806,7 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1836,7 +1831,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1863,7 +1858,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1892,7 +1887,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1923,7 +1918,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="9" t="n">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1956,7 +1951,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2009,13 +2004,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D38 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,7 +2037,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2050,7 +2045,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2061,7 +2056,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -2069,7 +2064,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -2077,7 +2072,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2100,30 +2095,30 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D38 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,7 +2208,7 @@
       <c r="C2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -2222,7 +2217,7 @@
       <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>150</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -2234,7 +2229,7 @@
       <c r="J2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>151</v>
       </c>
       <c r="L2" s="0" t="s">
@@ -2249,7 +2244,7 @@
       <c r="O2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
@@ -2261,7 +2256,7 @@
       <c r="S2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="0" t="s">
@@ -2270,7 +2265,7 @@
       <c r="W2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2293,15 +2288,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="D38 I28"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,13 +2314,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -2333,10 +2328,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2347,10 +2342,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2361,13 +2356,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -2375,24 +2370,24 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2415,14 +2410,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="D38 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,18 +2517,19 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="D38 C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,7 +2623,7 @@
       <c r="B7" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -2640,7 +2637,7 @@
       <c r="B8" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -2654,7 +2651,7 @@
       <c r="B9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -2668,7 +2665,7 @@
       <c r="B10" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -2682,7 +2679,7 @@
       <c r="B11" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -2696,7 +2693,7 @@
       <c r="B12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -2722,15 +2719,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D38 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,23 +2857,24 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D38 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2882,10 +2882,10 @@
       <c r="A2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="1"/>
@@ -2909,13 +2909,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D38 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.3962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.3555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,26 +2928,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2969,12 +2970,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D38 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5148148148148"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,8 +2988,8 @@
       <c r="A2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="0" t="s">
         <v>95</v>
       </c>
@@ -3011,15 +3013,16 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D38 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.9185185185185"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.1888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,12 +3046,12 @@
       <c r="C2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3071,12 +3074,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="D38 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,10 +3098,10 @@
       <c r="A2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
